--- a/Lab/Epi Data Collection Sample.xlsx
+++ b/Lab/Epi Data Collection Sample.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Courses\ECC058\DHLAB\Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FC3ECE-9035-48F9-A234-81590C9E6DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD065A1-F194-418C-BF1A-EAF069008A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50490" yWindow="-2940" windowWidth="23400" windowHeight="14760" xr2:uid="{46AC7D56-0865-4F61-8CFB-F570DB162D03}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="3" xr2:uid="{46AC7D56-0865-4F61-8CFB-F570DB162D03}"/>
   </bookViews>
   <sheets>
     <sheet name="EDR" sheetId="1" r:id="rId1"/>
-    <sheet name="EDH" sheetId="2" r:id="rId2"/>
+    <sheet name="EDR (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="EDH" sheetId="2" r:id="rId3"/>
+    <sheet name="EDH (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <t>https://edh-www.adw.uni-heidelberg.de/digilib/Scaler/IIIF/f023476.tif/full/full/0/default.png</t>
   </si>
   <si>
-    <t>https://edh-www.adw.uni-heidelberg.de/digilib/Scaler/IIIF/f023476.tif/full/pct:10/0/default.png</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -230,6 +229,51 @@
   </si>
   <si>
     <t>44.0484, 8.21493</t>
+  </si>
+  <si>
+    <t>Hic requiesci[t in pa]=
+ce b(onae) m(emoriae) Donatus [diaco]=
+nus, qui vixit in h[oc sae]=
+[cl(o) an]nos p(lus) m(inus) XL, d[ep(ositus) est]
+[sub (die) - men(se) Ianua]ṛịọ 
+[Imp(eratore) D(omino) N(ostro) Iustino] p̣(er)p(etuo) Aug(usto)
+[anno] VI.</t>
+  </si>
+  <si>
+    <t>HIC REQVIESCI
+CE · BM · DONATVS [-----]
+NVS · QVI · VIXIT · INH[-----]
+[----]NOS · PM · XL · D[-----]
+[------------]ṚỊỌ 
+[------------] P̣ P · AVG
+[----] VI  ·</t>
+  </si>
+  <si>
+    <t>http://www.edr-edr.it//foto_epigrafi/immagini_uso/1/000113.jpg?dummy=1573210171,http://www.edr-edr.it//foto_epigrafi/immagini_uso/1/000113-1.jpg?dummy=1573211288</t>
+  </si>
+  <si>
+    <t>https://edh-www.adw.uni-heidelberg.de/digilib/Scaler/IIIF/f023476.tif/full/full/0/default.png,http://www.edr-edr.it/foto_epigrafi/immagini_uso/78/078758.jpg?dummy=1573222304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maecia 
+M(arci) l(iberta) Halin̂e 
+f̣ecit sibe(!)
+[s]uisque
+[s]uoque
+[so?]dali.
+[in fr(onte) p(edes)] XIIII,
+[in ag(ro) p(edes) ---].
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAECIA 
+M L HALIN̂E 
+F̣ECIT SIBE
+[ ]VISQVE 
+[ ]VIOQVE 
+[ ]DALI 
+[ ] XIIII 
+[ ] </t>
   </si>
 </sst>
 </file>
@@ -294,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -306,6 +350,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -326,57 +376,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5808452-CFEC-452F-85D1-9FA67F086567}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5276850" y="2447925"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -404,7 +403,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -454,7 +453,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -884,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19774B1B-78E4-4DEC-ACD5-F033D9A178B6}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.796875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -898,185 +897,297 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="str">
-        <f>UPPER(B11)</f>
-        <v>HIC REQUIESCI[T IN PA]=</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I9" r:id="rId1" xr:uid="{4739F43F-763F-4AAE-A815-AFD58B146D1A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EFB388-56D6-42E8-B975-02EEAB271611}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="46.796875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="76" customWidth="1"/>
+    <col min="3" max="3" width="75.06640625" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{CAEDE263-3118-479F-943E-70414AD34B67}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123FEF4A-25BE-4CED-AAB9-0D3CA4508BCF}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -1093,77 +1204,77 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="162.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1171,112 +1282,112 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -1295,4 +1406,129 @@
   </ignoredErrors>
   <drawing r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F984C34-ECD3-4CF4-AA37-EB9FF77B00FD}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.73046875" customWidth="1"/>
+    <col min="2" max="2" width="74.19921875" customWidth="1"/>
+    <col min="3" max="3" width="77.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="108.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{4469B64D-6C10-4185-9716-F5B9C5063984}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{2F8FD56D-FDEE-451C-BDC0-3DC970E31C20}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>